--- a/media/excels/2-9nominal_income_index_by_region.xlsx
+++ b/media/excels/2-9nominal_income_index_by_region.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\home\work\macrobulletin_project\media\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB9E0957-E642-4983-B574-66B55684483F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C5DE026-5AAD-45E4-9BCD-1D6FD5062655}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
   <si>
     <t>в %</t>
   </si>
@@ -136,9 +136,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -441,39 +444,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="K1" sqref="K1:M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="38.5703125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B1">
         <v>2020</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C1" s="2">
         <v>2021</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1">
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2">
         <v>2022</v>
       </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1">
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2">
         <v>2023</v>
       </c>
-      <c r="L1" s="1"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -510,8 +511,11 @@
       <c r="L2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -530,17 +534,17 @@
       <c r="F3">
         <v>112.3</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="1">
         <v>117.5</v>
       </c>
       <c r="H3">
-        <v>117.1</v>
+        <v>122.2</v>
       </c>
       <c r="I3">
-        <v>117.6</v>
+        <v>119.2</v>
       </c>
       <c r="J3">
-        <v>120.5</v>
+        <v>119.2</v>
       </c>
       <c r="K3">
         <v>116.9</v>
@@ -548,34 +552,25 @@
       <c r="L3">
         <v>115.7</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M3">
+        <v>116.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="C4">
-        <v>101.1</v>
-      </c>
-      <c r="D4">
-        <v>107.5</v>
-      </c>
-      <c r="E4">
-        <v>110.7</v>
-      </c>
-      <c r="F4">
-        <v>107.2</v>
-      </c>
-      <c r="G4">
+      <c r="G4" s="1">
         <v>112.3</v>
       </c>
       <c r="H4">
-        <v>121.5</v>
+        <v>116.6</v>
       </c>
       <c r="I4">
-        <v>117.3</v>
+        <v>114.8</v>
       </c>
       <c r="J4">
-        <v>127.3</v>
+        <v>119.2</v>
       </c>
       <c r="K4">
         <v>111</v>
@@ -583,8 +578,11 @@
       <c r="L4">
         <v>121.2</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M4">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -603,17 +601,17 @@
       <c r="F5">
         <v>113.1</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="1">
         <v>117.7</v>
       </c>
       <c r="H5">
-        <v>109.7</v>
+        <v>123.2</v>
       </c>
       <c r="I5">
-        <v>109.8</v>
+        <v>118.1</v>
       </c>
       <c r="J5">
-        <v>113.8</v>
+        <v>118.9</v>
       </c>
       <c r="K5">
         <v>112.6</v>
@@ -621,8 +619,11 @@
       <c r="L5">
         <v>111.6</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M5">
+        <v>115.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -641,17 +642,17 @@
       <c r="F6">
         <v>118.4</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="1">
         <v>115.2</v>
       </c>
       <c r="H6">
-        <v>117</v>
+        <v>121.6</v>
       </c>
       <c r="I6">
-        <v>115.8</v>
+        <v>121.5</v>
       </c>
       <c r="J6">
-        <v>111.1</v>
+        <v>115.2</v>
       </c>
       <c r="K6">
         <v>117.4</v>
@@ -659,8 +660,11 @@
       <c r="L6">
         <v>117.9</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M6">
+        <v>120.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -668,28 +672,28 @@
         <v>108.9</v>
       </c>
       <c r="C7">
-        <v>111.3</v>
+        <v>114.8</v>
       </c>
       <c r="D7">
         <v>122.9</v>
       </c>
       <c r="E7">
-        <v>106.6</v>
+        <v>114.2</v>
       </c>
       <c r="F7">
-        <v>108.5</v>
-      </c>
-      <c r="G7">
+        <v>115.7</v>
+      </c>
+      <c r="G7" s="1">
         <v>118.5</v>
       </c>
       <c r="H7">
-        <v>110.5</v>
+        <v>123.5</v>
       </c>
       <c r="I7">
-        <v>109.5</v>
+        <v>110.9</v>
       </c>
       <c r="J7">
-        <v>113.2</v>
+        <v>110</v>
       </c>
       <c r="K7">
         <v>107.3</v>
@@ -697,8 +701,11 @@
       <c r="L7">
         <v>108.2</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M7">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -717,17 +724,17 @@
       <c r="F8">
         <v>117.6</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="1">
         <v>114.4</v>
       </c>
       <c r="H8">
-        <v>122.4</v>
+        <v>129.9</v>
       </c>
       <c r="I8">
-        <v>122.6</v>
+        <v>124.5</v>
       </c>
       <c r="J8">
-        <v>131.19999999999999</v>
+        <v>128.1</v>
       </c>
       <c r="K8">
         <v>124.8</v>
@@ -735,8 +742,11 @@
       <c r="L8">
         <v>110.7</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M8">
+        <v>112.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -755,17 +765,17 @@
       <c r="F9">
         <v>114</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="1">
         <v>113.4</v>
       </c>
       <c r="H9">
-        <v>115.6</v>
+        <v>120.9</v>
       </c>
       <c r="I9">
-        <v>114.1</v>
+        <v>119.2</v>
       </c>
       <c r="J9">
-        <v>117.4</v>
+        <v>120</v>
       </c>
       <c r="K9">
         <v>117</v>
@@ -773,8 +783,11 @@
       <c r="L9">
         <v>117.6</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M9">
+        <v>119.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -793,17 +806,17 @@
       <c r="F10">
         <v>110.2</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="1">
         <v>114.4</v>
       </c>
       <c r="H10">
-        <v>117.1</v>
+        <v>128.6</v>
       </c>
       <c r="I10">
-        <v>110.5</v>
+        <v>118.9</v>
       </c>
       <c r="J10">
-        <v>119.9</v>
+        <v>122.9</v>
       </c>
       <c r="K10">
         <v>115.8</v>
@@ -811,34 +824,25 @@
       <c r="L10">
         <v>112.3</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M10">
+        <v>118.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>14</v>
       </c>
-      <c r="C11">
-        <v>103.8</v>
-      </c>
-      <c r="D11">
-        <v>109.1</v>
-      </c>
-      <c r="E11">
-        <v>113.4</v>
-      </c>
-      <c r="F11">
-        <v>113.3</v>
-      </c>
-      <c r="G11">
+      <c r="G11" s="1">
         <v>105.8</v>
       </c>
       <c r="H11">
-        <v>114.1</v>
+        <v>121.5</v>
       </c>
       <c r="I11">
-        <v>94.4</v>
+        <v>112.9</v>
       </c>
       <c r="J11">
-        <v>114.8</v>
+        <v>111.7</v>
       </c>
       <c r="K11">
         <v>109.9</v>
@@ -846,8 +850,11 @@
       <c r="L11">
         <v>111.5</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M11">
+        <v>118.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -855,28 +862,28 @@
         <v>122.6</v>
       </c>
       <c r="C12">
-        <v>103.3</v>
+        <v>104.1</v>
       </c>
       <c r="D12">
         <v>109.7</v>
       </c>
       <c r="E12">
-        <v>103.7</v>
+        <v>101.2</v>
       </c>
       <c r="F12">
-        <v>107</v>
-      </c>
-      <c r="G12">
+        <v>106.6</v>
+      </c>
+      <c r="G12" s="1">
         <v>117.3</v>
       </c>
       <c r="H12">
-        <v>118.7</v>
+        <v>119.3</v>
       </c>
       <c r="I12">
-        <v>118</v>
+        <v>123.5</v>
       </c>
       <c r="J12">
-        <v>120.8</v>
+        <v>123.5</v>
       </c>
       <c r="K12">
         <v>121</v>
@@ -884,8 +891,11 @@
       <c r="L12">
         <v>123</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M12">
+        <v>120.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -902,19 +912,19 @@
         <v>121.2</v>
       </c>
       <c r="F13">
-        <v>107.5</v>
-      </c>
-      <c r="G13">
+        <v>114.1</v>
+      </c>
+      <c r="G13" s="1">
         <v>116.7</v>
       </c>
       <c r="H13">
-        <v>120.4</v>
+        <v>117.7</v>
       </c>
       <c r="I13">
-        <v>115.4</v>
+        <v>119.2</v>
       </c>
       <c r="J13">
-        <v>125.6</v>
+        <v>123.6</v>
       </c>
       <c r="K13">
         <v>122.8</v>
@@ -922,8 +932,11 @@
       <c r="L13">
         <v>122</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M13">
+        <v>117.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -942,17 +955,17 @@
       <c r="F14">
         <v>107.8</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="1">
         <v>120.9</v>
       </c>
       <c r="H14">
-        <v>126.1</v>
+        <v>125.2</v>
       </c>
       <c r="I14">
-        <v>115.9</v>
+        <v>120</v>
       </c>
       <c r="J14">
-        <v>120.9</v>
+        <v>122.1</v>
       </c>
       <c r="K14">
         <v>117.8</v>
@@ -960,8 +973,11 @@
       <c r="L14">
         <v>114.6</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M14">
+        <v>115.9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -980,17 +996,17 @@
       <c r="F15">
         <v>110.3</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="1">
         <v>122.8</v>
       </c>
       <c r="H15">
-        <v>132.9</v>
+        <v>132.80000000000001</v>
       </c>
       <c r="I15">
-        <v>132</v>
+        <v>128.80000000000001</v>
       </c>
       <c r="J15">
-        <v>129.19999999999999</v>
+        <v>125.2</v>
       </c>
       <c r="K15">
         <v>112.3</v>
@@ -998,8 +1014,11 @@
       <c r="L15">
         <v>106.3</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M15">
+        <v>108.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -1018,17 +1037,17 @@
       <c r="F16">
         <v>113.4</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="1">
         <v>123</v>
       </c>
       <c r="H16">
-        <v>122.2</v>
+        <v>124.8</v>
       </c>
       <c r="I16">
-        <v>121.6</v>
+        <v>124.8</v>
       </c>
       <c r="J16">
-        <v>122.6</v>
+        <v>122.9</v>
       </c>
       <c r="K16">
         <v>113.9</v>
@@ -1036,8 +1055,11 @@
       <c r="L16">
         <v>114</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M16">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -1056,17 +1078,17 @@
       <c r="F17">
         <v>117.9</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="1">
         <v>121.5</v>
       </c>
       <c r="H17">
-        <v>117.8</v>
+        <v>119.2</v>
       </c>
       <c r="I17">
-        <v>119.1</v>
+        <v>122.2</v>
       </c>
       <c r="J17">
-        <v>117.9</v>
+        <v>122.3</v>
       </c>
       <c r="K17">
         <v>117</v>
@@ -1074,8 +1096,11 @@
       <c r="L17">
         <v>118</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M17">
+        <v>114.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -1094,17 +1119,17 @@
       <c r="F18">
         <v>106.8</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="1">
         <v>117.5</v>
       </c>
       <c r="H18">
-        <v>115.9</v>
+        <v>119.1</v>
       </c>
       <c r="I18">
-        <v>112.4</v>
+        <v>118.3</v>
       </c>
       <c r="J18">
-        <v>117.2</v>
+        <v>120.8</v>
       </c>
       <c r="K18">
         <v>117.3</v>
@@ -1112,34 +1137,25 @@
       <c r="L18">
         <v>119.2</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M18">
+        <v>120.4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>22</v>
       </c>
-      <c r="C19">
-        <v>113.1</v>
-      </c>
-      <c r="D19">
-        <v>135.1</v>
-      </c>
-      <c r="E19">
-        <v>122.8</v>
-      </c>
-      <c r="F19">
-        <v>117.9</v>
-      </c>
-      <c r="G19">
+      <c r="G19" s="1">
         <v>130</v>
       </c>
       <c r="H19">
-        <v>121.9</v>
+        <v>123.8</v>
       </c>
       <c r="I19">
-        <v>162.1</v>
+        <v>144</v>
       </c>
       <c r="J19">
-        <v>129.9</v>
+        <v>131.69999999999999</v>
       </c>
       <c r="K19">
         <v>136</v>
@@ -1147,8 +1163,11 @@
       <c r="L19">
         <v>123.9</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M19">
+        <v>113.9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1156,28 +1175,28 @@
         <v>114.1</v>
       </c>
       <c r="C20">
-        <v>100.6</v>
+        <v>101.2</v>
       </c>
       <c r="D20">
         <v>120.1</v>
       </c>
       <c r="E20">
-        <v>109.8</v>
+        <v>107.1</v>
       </c>
       <c r="F20">
-        <v>119.1</v>
-      </c>
-      <c r="G20">
+        <v>122.2</v>
+      </c>
+      <c r="G20" s="1">
         <v>115</v>
       </c>
       <c r="H20">
-        <v>124.1</v>
+        <v>131.69999999999999</v>
       </c>
       <c r="I20">
-        <v>116.4</v>
+        <v>128.69999999999999</v>
       </c>
       <c r="J20">
-        <v>113.8</v>
+        <v>124.4</v>
       </c>
       <c r="K20">
         <v>119.5</v>
@@ -1185,8 +1204,11 @@
       <c r="L20">
         <v>118.4</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M20">
+        <v>117.9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1205,17 +1227,17 @@
       <c r="F21">
         <v>114</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="1">
         <v>109.7</v>
       </c>
       <c r="H21">
-        <v>105.6</v>
+        <v>118.2</v>
       </c>
       <c r="I21">
-        <v>104.6</v>
+        <v>112.8</v>
       </c>
       <c r="J21">
-        <v>107.5</v>
+        <v>111.3</v>
       </c>
       <c r="K21">
         <v>110.1</v>
@@ -1223,8 +1245,11 @@
       <c r="L21">
         <v>111.6</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M21">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -1243,17 +1268,17 @@
       <c r="F22">
         <v>107.7</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="1">
         <v>120.5</v>
       </c>
       <c r="H22">
-        <v>114.8</v>
+        <v>120.5</v>
       </c>
       <c r="I22">
-        <v>116.2</v>
+        <v>116.9</v>
       </c>
       <c r="J22">
-        <v>119.1</v>
+        <v>118.3</v>
       </c>
       <c r="K22">
         <v>116.3</v>
@@ -1261,8 +1286,11 @@
       <c r="L22">
         <v>115</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M22">
+        <v>117.7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -1281,32 +1309,34 @@
       <c r="F23">
         <v>104.3</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="1">
         <v>114.9</v>
       </c>
       <c r="H23">
-        <v>109.4</v>
+        <v>117.3</v>
       </c>
       <c r="I23">
-        <v>109</v>
+        <v>113.7</v>
       </c>
       <c r="J23">
-        <v>110.7</v>
+        <v>113.6</v>
       </c>
       <c r="K23">
         <v>113.2</v>
       </c>
       <c r="L23">
         <v>114.2</v>
+      </c>
+      <c r="M23">
+        <v>118.2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="K1:M1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>